--- a/biology/Zoologie/Isostictidae/Isostictidae.xlsx
+++ b/biology/Zoologie/Isostictidae/Isostictidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Isostictidae sont une famille d'insectes de l'ordre des odonates, du sous-ordre des zygoptères (demoiselles)[1]. Il s'agit d'espèces de taille moyenne, entre 15-40 mm, qui se rencontrent en Australie, Nouvelle-Calédonie et en Nouvelle-Guinée[2]. Les espèces de ce groupe ressemblent à celles de la famille des Protoneuridae. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Isostictidae sont une famille d'insectes de l'ordre des odonates, du sous-ordre des zygoptères (demoiselles). Il s'agit d'espèces de taille moyenne, entre 15-40 mm, qui se rencontrent en Australie, Nouvelle-Calédonie et en Nouvelle-Guinée. Les espèces de ce groupe ressemblent à celles de la famille des Protoneuridae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Isostictidae fréquentent les ruisseaux, les rivières et les réservoirs. On retrouve les naïades (larves) dans la végétation submergée, dans les racines des arbres bordant les cours d'eau ou dans des substrats organiques[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Isostictidae fréquentent les ruisseaux, les rivières et les réservoirs. On retrouve les naïades (larves) dans la végétation submergée, dans les racines des arbres bordant les cours d'eau ou dans des substrats organiques. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (14 décembre 2020)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (14 décembre 2020) :
 Austrosticta Tillyard, 1908
 Cnemisticta Donnely, 1993
 Eurysticta Watson, 1969
